--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbo\Documents\UiPath\202311_견적서메일발송\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbo\Documents\UiPath\202311_OfficeDepo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD477E1-9C78-40F3-88C4-44899865721C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE78F8F-E091-4FCD-8BC1-8429ECF9A5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,10 +237,6 @@
   </si>
   <si>
     <t>SavePDF</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Data\Input\</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -347,31 +343,6 @@
   </si>
   <si>
     <t>mailBody</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>C:\Users\bbo\Documents\UiPath\202311_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>견적서메일발송</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>\Data\Output\</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -619,6 +590,14 @@
       </rPr>
       <t>견적서</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Data\Output</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1016,7 +995,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1119,11 +1098,11 @@
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1131,32 +1110,32 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="59.4">
       <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
